--- a/input/crosswalk_table.xlsx
+++ b/input/crosswalk_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Dropbox\PhD thesis\chapitre_2\PhD-Chapter-2\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F8F5E8-C776-4A8B-921A-DA6D7FF229B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8B3BEC-9559-49C6-A55B-63C74892E859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DE0EB39-D504-43F0-B748-8016B2A74CD0}"/>
   </bookViews>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39278753-1BB0-48D9-B4F2-C29CB2FBD16B}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
